--- a/src/main/webapp/static/file/njTemplate.xlsx
+++ b/src/main/webapp/static/file/njTemplate.xlsx
@@ -1,37 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7155"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>部门拟建政务信息系统调查表（审计统计表）</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -43,19 +36,9 @@
       </rPr>
       <t>系统名称</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涉密分类</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉密分类</t>
   </si>
   <si>
     <r>
@@ -67,15 +50,12 @@
       </rPr>
       <t>基本信息</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统建设必要性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -87,7 +67,6 @@
       </rPr>
       <t>审批部门</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -99,7 +78,6 @@
       </rPr>
       <t>审批时间</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -111,23 +89,18 @@
       </rPr>
       <t>业务功能</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统建设预算（万元）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>资金来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>资金到位情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建设方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,7 +112,6 @@
       </rPr>
       <t>联系人</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -151,7 +123,6 @@
       </rPr>
       <t>联系电话</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -163,139 +134,101 @@
       </rPr>
       <t>系统类别</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建设紧迫程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统建成时间要求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拟建系统依据/紧迫性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建设预期目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预估使用对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预估使用规模（注册用户数/个)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门拟建政务信息系统调查表（审计统计表）</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wmc</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>companyId</t>
   </si>
   <si>
     <t>xtmc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>smfl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>spbm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>spsj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ywgn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xtjsys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zjly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zjdwqk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jsfs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lxr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lxdh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xtlb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jsjpcd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>xtjcsjyq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>njxtyj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jsyqmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ygsydx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ygsygm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>remarks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,42 +237,176 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,18 +415,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -369,55 +616,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,128 +683,411 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -837,307 +1378,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="6" width="8.875" style="3"/>
-    <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
-    <col min="8" max="17" width="8.875" style="3"/>
-    <col min="18" max="18" width="22.5" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="3"/>
+    <col min="1" max="6" width="8.875" style="1"/>
+    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
+    <col min="8" max="17" width="8.875" style="1"/>
+    <col min="18" max="18" width="22.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" ht="67.5" customHeight="1" spans="1:21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="3" ht="17.45" customHeight="1" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="17.45" customHeight="1" spans="1:21">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="U4" s="10"/>
     </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="5" ht="17.45" customHeight="1" spans="1:21">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:T3"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U3:U5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I5">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5">
+      <formula1>"已到位,未到位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
+      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O5">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
-      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5">
-      <formula1>"已到位,未到位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"涉密,非涉密"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/file/njTemplate.xlsx
+++ b/src/main/webapp/static/file/njTemplate.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -21,7 +21,15 @@
     <t>部门拟建政务信息系统调查表（审计统计表）</t>
   </si>
   <si>
-    <t>序号</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
   </si>
   <si>
     <t>单位名称</t>
@@ -38,7 +46,15 @@
     </r>
   </si>
   <si>
-    <t>涉密分类</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉密分类</t>
+    </r>
   </si>
   <si>
     <r>
@@ -160,7 +176,7 @@
     <t>companyId</t>
   </si>
   <si>
-    <t>xtmc</t>
+    <t>name</t>
   </si>
   <si>
     <t>smfl</t>
@@ -222,11 +238,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -247,7 +263,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -257,15 +273,60 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,69 +338,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,7 +372,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,28 +380,28 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,24 +411,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -427,19 +442,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,37 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,103 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +626,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -649,7 +651,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -707,23 +711,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,8 +744,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,30 +814,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -809,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,137 +834,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,76 +977,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,6 +1090,14 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+      <color rgb="00FCD5B4"/>
+      <color rgb="00C5D9F1"/>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1098,9 +1107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1138,7 +1147,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Cambria-Calibri">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1149,7 +1158,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1184,7 +1193,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1210,7 +1219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007-2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,8 +1349,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -1388,17 +1397,21 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
-    <col min="8" max="17" width="8.875" style="1"/>
-    <col min="18" max="18" width="22.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="1"/>
+    <col min="2" max="2" width="12.2166666666667" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88333333333333" style="1"/>
+    <col min="7" max="7" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.88333333333333" style="1"/>
+    <col min="15" max="15" width="12.6666666666667" style="1"/>
+    <col min="16" max="17" width="8.88333333333333" style="1"/>
+    <col min="18" max="18" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" customHeight="1" spans="1:21">
@@ -1426,11 +1439,12 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="3" ht="17.45" customHeight="1" spans="1:21">
+    <row r="2" customHeight="1"/>
+    <row r="3" ht="17.4" customHeight="1" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1439,182 +1453,170 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="16" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="25" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17.45" customHeight="1" spans="1:21">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="4" ht="17.4" customHeight="1" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="10"/>
+      <c r="U4" s="22"/>
     </row>
-    <row r="5" ht="17.45" customHeight="1" spans="1:21">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
+    <row r="5" ht="17.4" customHeight="1" spans="1:21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1645,7 +1647,10 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U3:U5"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"涉密,非涉密"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I5">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
@@ -1660,7 +1665,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/src/main/webapp/static/file/njTemplate.xlsx
+++ b/src/main/webapp/static/file/njTemplate.xlsx
@@ -21,15 +21,7 @@
     <t>部门拟建政务信息系统调查表（审计统计表）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
+    <t>序号</t>
   </si>
   <si>
     <t>单位名称</t>
@@ -46,15 +38,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涉密分类</t>
-    </r>
+    <t>涉密分类</t>
   </si>
   <si>
     <r>
@@ -74,15 +58,7 @@
     <t>备注</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审批部门</t>
-    </r>
+    <t>审批部门</t>
   </si>
   <si>
     <r>
@@ -237,14 +213,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,14 +247,108 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,22 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -330,91 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -442,30 +411,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,144 +585,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -639,6 +608,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -651,9 +633,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -708,35 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +729,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
@@ -775,16 +748,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,11 +779,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,137 +814,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,64 +957,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1406,7 +1362,7 @@
     <col min="1" max="1" width="8.88333333333333" style="1"/>
     <col min="2" max="2" width="12.2166666666667" style="1" customWidth="1"/>
     <col min="3" max="6" width="8.88333333333333" style="1"/>
-    <col min="7" max="7" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
     <col min="8" max="14" width="8.88333333333333" style="1"/>
     <col min="15" max="15" width="12.6666666666667" style="1"/>
     <col min="16" max="17" width="8.88333333333333" style="1"/>
@@ -1444,7 +1400,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1453,18 +1409,18 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1472,88 +1428,130 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="17.4" customHeight="1" spans="1:21">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="22"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" ht="17.4" customHeight="1" spans="1:21">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="22"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="9" t="s">
@@ -1586,7 +1584,7 @@
       <c r="J6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="12" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -1647,20 +1645,17 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U3:U5"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"涉密,非涉密"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I3:I4">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J3:J4">
       <formula1>"已到位,未到位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K3:K4">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O3:O4">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
